--- a/Gestion/gira2113-guaa2102-berf2308-thia2612-guig2709-anil2301-barl2407-crej2104/L2 Mega_planif.xlsx
+++ b/Gestion/gira2113-guaa2102-berf2308-thia2612-guig2709-anil2301-barl2407-crej2104/L2 Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
   <si>
     <t>Objectif</t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>Détection exacte</t>
+  </si>
+  <si>
+    <t>Détection des notes</t>
+  </si>
+  <si>
+    <t>Détection des touches noires</t>
+  </si>
+  <si>
+    <t>2.T.2.9</t>
   </si>
 </sst>
 </file>
@@ -893,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -945,6 +954,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,14 +971,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,36 +1297,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1328,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA512"/>
+  <dimension ref="A1:AA513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,62 +1358,64 @@
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -1820,10 +1834,10 @@
       <c r="A15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>243</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1860,10 +1874,10 @@
       <c r="A16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>246</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1896,26 +1910,26 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -2920,7 +2934,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -2957,26 +2971,32 @@
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
     </row>
-    <row r="47" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>165</v>
+      <c r="F47" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+        <v>244</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="O47" s="17" t="s">
+        <v>250</v>
+      </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
@@ -2990,21 +3010,25 @@
       <c r="Z47" s="17"/>
       <c r="AA47" s="17"/>
     </row>
-    <row r="48" spans="2:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="F48" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="19"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -3025,45 +3049,49 @@
       <c r="Z48" s="17"/>
       <c r="AA48" s="17"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
+    <row r="49" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3089,27 +3117,20 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <v>2</v>
-      </c>
-      <c r="L51" s="2">
-        <v>4</v>
-      </c>
-      <c r="M51" s="2">
-        <f>L51*K51</f>
-        <v>8</v>
-      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3129,10 +3150,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3142,11 +3163,11 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
-        <v>2</v>
+        <f>L52*K52</f>
+        <v>8</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3167,10 +3188,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3183,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M53:M54" si="3">L53*K53</f>
         <v>2</v>
       </c>
       <c r="N53" s="2"/>
@@ -3203,20 +3224,27 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3234,27 +3262,20 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2">
-        <v>2</v>
-      </c>
-      <c r="L55" s="2">
-        <v>3</v>
-      </c>
-      <c r="M55" s="2">
-        <f>L55*K55</f>
-        <v>6</v>
-      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3274,10 +3295,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3287,11 +3308,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
-        <v>20</v>
+        <f>L56*K56</f>
+        <v>6</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3312,10 +3333,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3325,11 +3346,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="M57:M58" si="4">L57*K57</f>
+        <v>20</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3348,20 +3369,27 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="K58" s="2">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3379,27 +3407,20 @@
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2">
-        <v>2</v>
-      </c>
-      <c r="L59" s="2">
-        <v>3</v>
-      </c>
-      <c r="M59" s="2">
-        <f>L59*K59</f>
-        <v>6</v>
-      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3419,10 +3440,10 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3432,11 +3453,11 @@
         <v>2</v>
       </c>
       <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <f>L60*K60</f>
         <v>6</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
-        <v>12</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3457,10 +3478,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3470,11 +3491,11 @@
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" ref="M61:M62" si="5">L61*K61</f>
+        <v>12</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3492,22 +3513,28 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
-        <v>3</v>
-      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>140</v>
+      <c r="E62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="K62" s="2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>4</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -3524,14 +3551,14 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B63" s="3">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3557,13 +3584,13 @@
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="C64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3587,25 +3614,19 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3625,24 +3646,24 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3668,19 +3689,19 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>220</v>
+        <v>150</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3706,16 +3727,20 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3735,24 +3760,21 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3776,19 +3798,19 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3811,16 +3833,22 @@
     </row>
     <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3842,22 +3870,16 @@
     </row>
     <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3881,19 +3903,19 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>187</v>
+        <v>153</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3916,16 +3938,22 @@
     </row>
     <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3947,22 +3975,16 @@
     </row>
     <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="D75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3982,20 +4004,20 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>218</v>
+        <v>205</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>36</v>
@@ -4019,14 +4041,23 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4049,21 +4080,12 @@
     </row>
     <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="D78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4088,16 +4110,16 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>38</v>
@@ -4125,16 +4147,20 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4156,14 +4182,16 @@
     </row>
     <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4187,16 +4215,14 @@
     </row>
     <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="D82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4222,10 +4248,10 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>221</v>
@@ -4255,10 +4281,10 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>221</v>
@@ -4286,14 +4312,16 @@
     </row>
     <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4317,22 +4345,16 @@
     </row>
     <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4354,16 +4376,22 @@
     </row>
     <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4385,22 +4413,16 @@
     </row>
     <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="D88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4424,13 +4446,13 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>192</v>
@@ -4457,19 +4479,24 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B90" s="3"/>
-      <c r="C90" s="2" t="s">
-        <v>121</v>
-      </c>
+    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4491,13 +4518,13 @@
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4524,27 +4551,20 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2">
-        <v>2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>4</v>
-      </c>
-      <c r="M92" s="2">
-        <f>L92*K92</f>
-        <v>8</v>
-      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4565,10 +4585,10 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4578,11 +4598,11 @@
         <v>2</v>
       </c>
       <c r="L93" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
-        <v>2</v>
+        <f>L93*K93</f>
+        <v>8</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4604,10 +4624,10 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4620,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M94:M95" si="6">L94*K94</f>
         <v>2</v>
       </c>
       <c r="N94" s="2"/>
@@ -4641,20 +4661,27 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4673,27 +4700,20 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="2">
-        <f>L96*K96</f>
-        <v>6</v>
-      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4714,10 +4734,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4727,11 +4747,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
-        <v>20</v>
+        <f>L97*K97</f>
+        <v>6</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4753,10 +4773,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4766,11 +4786,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="M98:M99" si="7">L98*K98</f>
+        <v>20</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4790,20 +4810,27 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F99" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>2</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4822,27 +4849,20 @@
     <row r="100" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2">
-        <v>2</v>
-      </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="2">
-        <f>L100*K100</f>
-        <v>6</v>
-      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4863,10 +4883,10 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -4876,11 +4896,11 @@
         <v>2</v>
       </c>
       <c r="L101" s="2">
+        <v>3</v>
+      </c>
+      <c r="M101" s="2">
+        <f>L101*K101</f>
         <v>6</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
-        <v>12</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -4902,10 +4922,10 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4915,11 +4935,11 @@
         <v>2</v>
       </c>
       <c r="L102" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" ref="M102:M103" si="8">L102*K102</f>
+        <v>12</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -4937,17 +4957,29 @@
       <c r="AA102" s="2"/>
     </row>
     <row r="103" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>4</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -16005,6 +16037,33 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
+    </row>
+    <row r="513" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2"/>
+      <c r="K513" s="2"/>
+      <c r="L513" s="2"/>
+      <c r="M513" s="2"/>
+      <c r="N513" s="2"/>
+      <c r="O513" s="2"/>
+      <c r="P513" s="2"/>
+      <c r="Q513" s="2"/>
+      <c r="R513" s="2"/>
+      <c r="S513" s="2"/>
+      <c r="T513" s="2"/>
+      <c r="U513" s="2"/>
+      <c r="V513" s="2"/>
+      <c r="W513" s="2"/>
+      <c r="X513" s="2"/>
+      <c r="Y513" s="2"/>
+      <c r="Z513" s="2"/>
+      <c r="AA513" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
